--- a/Report/RequirementsOverview.xlsx
+++ b/Report/RequirementsOverview.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365.sharepoint.com/sites/DSEGroup17Onethousandlittlelights/Gedeelde documenten/General/05.1-Detailed design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1468" documentId="11_C52B405E1D33315B351E0B54B977B2F22C73FF40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4A7E427-23C5-49A4-972F-468057A1749D}"/>
+  <xr:revisionPtr revIDLastSave="1704" documentId="11_C52B405E1D33315B351E0B54B977B2F22C73FF40" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9AB048C-4E48-4247-9D9C-65DC7E80F60A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
-    <sheet name="Color legend" sheetId="2" r:id="rId2"/>
+    <sheet name="Requirements met" sheetId="3" r:id="rId2"/>
+    <sheet name="Color legend" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,12 +37,11 @@
   <authors>
     <author>tc={465FC03C-49D6-49AD-BB85-0C35140C2098}</author>
     <author>tc={6D9DAD39-A991-4A9F-8291-3C5426292902}</author>
-    <author>tc={D34E0784-2568-4F91-A39B-A8E91CE1F233}</author>
-    <author>tc={95F0F607-D18D-4AB2-B1FB-FB2A00E18008}</author>
-    <author>tc={F31D550E-C038-4464-ADD0-49E27EEB327A}</author>
     <author>tc={BC8F3362-A566-42B1-9D5C-E0016DD2B330}</author>
     <author>tc={120497EA-8753-408E-9142-62414F8CCD8F}</author>
     <author>tc={B6B69B58-8734-4A63-AD94-274CA024DF05}</author>
+    <author>tc={95F0F607-D18D-4AB2-B1FB-FB2A00E18008}</author>
+    <author>tc={F31D550E-C038-4464-ADD0-49E27EEB327A}</author>
   </authors>
   <commentList>
     <comment ref="D21" authorId="0" shapeId="0" xr:uid="{465FC03C-49D6-49AD-BB85-0C35140C2098}">
@@ -53,7 +53,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="E28" authorId="1" shapeId="0" xr:uid="{6D9DAD39-A991-4A9F-8291-3C5426292902}">
+    <comment ref="E27" authorId="1" shapeId="0" xr:uid="{6D9DAD39-A991-4A9F-8291-3C5426292902}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,15 +61,32 @@
     Not resolved in ch7</t>
       </text>
     </comment>
-    <comment ref="E29" authorId="2" shapeId="0" xr:uid="{D34E0784-2568-4F91-A39B-A8E91CE1F233}">
+    <comment ref="E30" authorId="2" shapeId="0" xr:uid="{BC8F3362-A566-42B1-9D5C-E0016DD2B330}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Not resolved in ch7</t>
+    Resolved</t>
       </text>
     </comment>
-    <comment ref="E30" authorId="3" shapeId="0" xr:uid="{95F0F607-D18D-4AB2-B1FB-FB2A00E18008}">
+    <comment ref="E31" authorId="3" shapeId="0" xr:uid="{120497EA-8753-408E-9142-62414F8CCD8F}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Link to BMS
+</t>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="4" shapeId="0" xr:uid="{B6B69B58-8734-4A63-AD94-274CA024DF05}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Link to BMS</t>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="5" shapeId="0" xr:uid="{95F0F607-D18D-4AB2-B1FB-FB2A00E18008}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,7 +94,7 @@
     Can be discussed in ch7, or in integration, whichever is most suitable</t>
       </text>
     </comment>
-    <comment ref="E32" authorId="4" shapeId="0" xr:uid="{F31D550E-C038-4464-ADD0-49E27EEB327A}">
+    <comment ref="E35" authorId="6" shapeId="0" xr:uid="{F31D550E-C038-4464-ADD0-49E27EEB327A}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -86,37 +103,12 @@
 </t>
       </text>
     </comment>
-    <comment ref="E37" authorId="5" shapeId="0" xr:uid="{BC8F3362-A566-42B1-9D5C-E0016DD2B330}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Resolved</t>
-      </text>
-    </comment>
-    <comment ref="E38" authorId="6" shapeId="0" xr:uid="{120497EA-8753-408E-9142-62414F8CCD8F}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Link to BMS
-</t>
-      </text>
-    </comment>
-    <comment ref="E39" authorId="7" shapeId="0" xr:uid="{B6B69B58-8734-4A63-AD94-274CA024DF05}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Link to BMS</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="327">
   <si>
     <t>Final design</t>
   </si>
@@ -352,66 +344,57 @@
     <t>The components of the energy storage shall not contaminate the environment.</t>
   </si>
   <si>
-    <t>SUS-EO-7</t>
-  </si>
-  <si>
-    <t>Power supply failure during operation of the drone shall not result in release of any toxic substances outside of the system.</t>
+    <t>SP-AP-1.4.2</t>
+  </si>
+  <si>
+    <t>Future innovations shall have specifications up to a 20W power consumption</t>
+  </si>
+  <si>
+    <t>SP-SYS -1.3.1</t>
+  </si>
+  <si>
+    <t>The megaphone or speaker shall have a power consumption of 20W</t>
   </si>
   <si>
     <t>Discussed in Integration Chapter</t>
   </si>
   <si>
+    <t>CCE-AP-2</t>
+  </si>
+  <si>
+    <t>The show location shall be at most 1000m apart from the ground station</t>
+  </si>
+  <si>
+    <t>From a battery perspective</t>
+  </si>
+  <si>
+    <t>CCE-AP-3</t>
+  </si>
+  <si>
+    <t>The drones shall be recharged wirelessly through their landing pads</t>
+  </si>
+  <si>
+    <t>CCE-SYS-3.2</t>
+  </si>
+  <si>
+    <t>The drone shall be able to recharge autonomously on the landing pad between preparation and show.</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>Product description</t>
+  </si>
+  <si>
     <t>OP-AP-2</t>
   </si>
   <si>
     <t>The drones shall be suitable for mass transport</t>
   </si>
   <si>
-    <t>From a battery perspective</t>
-  </si>
-  <si>
-    <t>SP-AP-1.4.2</t>
-  </si>
-  <si>
-    <t>Future innovations shall have specifications up to a 20W power consumption</t>
-  </si>
-  <si>
-    <t>Battery has to be able to provide this</t>
-  </si>
-  <si>
-    <t>SP-SYS -1.3.1</t>
-  </si>
-  <si>
-    <t>The megaphone or speaker shall have a power consumption of 20W</t>
-  </si>
-  <si>
-    <t>CCE-AP-2</t>
-  </si>
-  <si>
-    <t>The show location shall be at most 1000m apart from the ground station</t>
-  </si>
-  <si>
-    <t>electronics</t>
-  </si>
-  <si>
-    <t>Product description</t>
-  </si>
-  <si>
-    <t>CCE-AP-3</t>
-  </si>
-  <si>
-    <t>The drones shall be recharged wirelessly through their landing pads</t>
-  </si>
-  <si>
     <t>Metals can make contact for conductive charging</t>
   </si>
   <si>
-    <t>CCE-SYS-3.2</t>
-  </si>
-  <si>
-    <t>The drone shall be able recharge autonomously on the landing pad between preparation and show.</t>
-  </si>
-  <si>
     <t>Power source can be recognized</t>
   </si>
   <si>
@@ -427,70 +410,67 @@
     <t>The drones shall be able to carry changeable payloads</t>
   </si>
   <si>
+    <t>SP-AP-1.1</t>
+  </si>
+  <si>
+    <t>The light source shall be visible in urban darkness over a distance of 4km</t>
+  </si>
+  <si>
+    <t>SP-SYS-1.1.1</t>
+  </si>
+  <si>
+    <t>The drone shall have an RGB Illumination</t>
+  </si>
+  <si>
+    <t>SP-AP-1.2</t>
+  </si>
+  <si>
+    <t>The pyrotechnics shall weigh no more than 0.6kg</t>
+  </si>
+  <si>
+    <t>SP-ST-1.2.1</t>
+  </si>
+  <si>
+    <t>The pyrotechnics shall not reach spectators</t>
+  </si>
+  <si>
+    <t>SP-AP-1.3</t>
+  </si>
+  <si>
+    <t>A megaphone or speaker shall be included in the drones</t>
+  </si>
+  <si>
+    <t>Phrase weirdly,  means it should be able to carry it</t>
+  </si>
+  <si>
+    <t>SP-AP-1.4.1</t>
+  </si>
+  <si>
+    <t>Future innovations shall have specifications up to a weight of 0.6kg</t>
+  </si>
+  <si>
+    <t>SP-AP-1.4.3</t>
+  </si>
+  <si>
+    <t>Future innovations shall have specifications up to dimensions of 20cm x 20cm x 20cm</t>
+  </si>
+  <si>
+    <t>done in integration chapter</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>SP-SYS-1.5</t>
+  </si>
+  <si>
+    <t>Structures shall accommodate power unit</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>SP-AP-1.1</t>
-  </si>
-  <si>
-    <t>The light source shall be visible in urban darkness over a distance of 4km</t>
-  </si>
-  <si>
-    <t>SP-SYS -1.1.1</t>
-  </si>
-  <si>
-    <t>The drone shall have an RGB Illumination</t>
-  </si>
-  <si>
-    <t>SP-AP-1.2</t>
-  </si>
-  <si>
-    <t>The pyrotechnics shall weigh no more than 0.6kg</t>
-  </si>
-  <si>
-    <t>SP-ST-1.2.1</t>
-  </si>
-  <si>
-    <t>The pyrotechnics shall not reach spectators</t>
-  </si>
-  <si>
-    <t>No  but consult Logistics chapter</t>
-  </si>
-  <si>
-    <t>SP-AP-1.3</t>
-  </si>
-  <si>
-    <t>A megaphone or speaker shall be included in the drones</t>
-  </si>
-  <si>
-    <t>Phrase weirdly,  means it should be able to carry it</t>
-  </si>
-  <si>
-    <t>SP-AP-1.4.1</t>
-  </si>
-  <si>
-    <t>Future innovations shall have specifications up to a weight of 0.6kg</t>
-  </si>
-  <si>
-    <t>SP-AP 1.4.3</t>
-  </si>
-  <si>
-    <t>Future innovations shall have specifications up to dimensions of 20cm x 20cm x 20cm</t>
-  </si>
-  <si>
-    <t>done in integration chapter</t>
-  </si>
-  <si>
-    <t>frame</t>
-  </si>
-  <si>
-    <t>SP-SYS-1.5</t>
-  </si>
-  <si>
-    <t>Structures shall accommodate power unit</t>
-  </si>
-  <si>
-    <t>SP-SYS - 1.6</t>
+    <t>SP-SYS-1.6</t>
   </si>
   <si>
     <t>Structures shall accomodate electronics</t>
@@ -688,6 +668,30 @@
     <t>Communication and posititioning is able to reach 20 drones at the same time, drones shall not collide due to interference</t>
   </si>
   <si>
+    <t>CCE-SYS-8</t>
+  </si>
+  <si>
+    <t>Choreography shall be executed.</t>
+  </si>
+  <si>
+    <t>Show that the drone can follow coordinates</t>
+  </si>
+  <si>
+    <t>Done in performance analysis-climb performance</t>
+  </si>
+  <si>
+    <t>CCE-AP-4</t>
+  </si>
+  <si>
+    <t>The drones shall be able position themselves within 0.5m accuracy</t>
+  </si>
+  <si>
+    <t>SP-SYS-1.2.2</t>
+  </si>
+  <si>
+    <t>The pyrotechnics shall not cause the drone's center of gravity to move outside of the stability and controllabillity margins</t>
+  </si>
+  <si>
     <t>SR-AP-5</t>
   </si>
   <si>
@@ -697,9 +701,6 @@
     <t>Calculate trajectory to safe landing ground within time frame is possible</t>
   </si>
   <si>
-    <t>Done in performance analysis-climb performance</t>
-  </si>
-  <si>
     <t>Check if control algorithm is available for a single engine failure</t>
   </si>
   <si>
@@ -710,30 +711,6 @@
   </si>
   <si>
     <t>An escape path is preprogrammed</t>
-  </si>
-  <si>
-    <t>CCE-SYS-8</t>
-  </si>
-  <si>
-    <t>Choreography shall be executed.</t>
-  </si>
-  <si>
-    <t>Show that the drone can follow coordinates</t>
-  </si>
-  <si>
-    <t>CCE-AP-4</t>
-  </si>
-  <si>
-    <t>The drones shall be able position themselves within 0.5m accuracy</t>
-  </si>
-  <si>
-    <t>Discuss in control</t>
-  </si>
-  <si>
-    <t>SP-SYS-1.2.2</t>
-  </si>
-  <si>
-    <t>The pyrotechnics shall not cause the drone's center of gravity to move outside of the stability and controllabillity margins</t>
   </si>
   <si>
     <t>Landing pad</t>
@@ -893,6 +870,9 @@
     <t>CCE/Power</t>
   </si>
   <si>
+    <t>Already done in eletronics</t>
+  </si>
+  <si>
     <t>Safety/logistics</t>
   </si>
   <si>
@@ -1001,6 +981,12 @@
     <t>The drone shall not leave any trash on the ground.</t>
   </si>
   <si>
+    <t>SUS-EO-7</t>
+  </si>
+  <si>
+    <t>Power supply failure during operation of the drone shall not result in release of any toxic substances outside of the system.</t>
+  </si>
+  <si>
     <t>Driver</t>
   </si>
   <si>
@@ -1052,10 +1038,61 @@
     <t>Integration requirements</t>
   </si>
   <si>
+    <t>Verified?</t>
+  </si>
+  <si>
     <t>System analysis requirements</t>
   </si>
   <si>
+    <t>System analysis</t>
+  </si>
+  <si>
+    <t>Post DSE</t>
+  </si>
+  <si>
+    <t>\ref{sec:testref}</t>
+  </si>
+  <si>
+    <t>Depends on client</t>
+  </si>
+  <si>
     <t>Financials</t>
+  </si>
+  <si>
+    <t>The drones shall cost no more than €1000,- per piece.</t>
+  </si>
+  <si>
+    <t>The expected cost of replacing parts in 1000 light shows shall be nomore than €650,-.</t>
+  </si>
+  <si>
+    <t>RAMS characteristics maintenance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEE, logistics doable </t>
+  </si>
+  <si>
+    <t>CCE , logistics doable</t>
+  </si>
+  <si>
+    <t>Set safety procedure</t>
+  </si>
+  <si>
+    <t>Propulsion &amp; Aerodynamics</t>
+  </si>
+  <si>
+    <t>Structures &amp; Payload</t>
+  </si>
+  <si>
+    <t>SP-SYS -1.1.1</t>
+  </si>
+  <si>
+    <t>SP-SYS - 1.6</t>
+  </si>
+  <si>
+    <t>SP-AP 1.4.3</t>
   </si>
   <si>
     <t>Subsystem verification</t>
@@ -1071,7 +1108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1119,6 +1156,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1293,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1352,8 +1395,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1374,155 +1428,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="30">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2126,45 +2050,42 @@
     <text xml:space="preserve">typo: 1 hour no longer applicable
 </text>
   </threadedComment>
-  <threadedComment ref="E28" dT="2021-06-17T15:12:01.79" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{6D9DAD39-A991-4A9F-8291-3C5426292902}">
+  <threadedComment ref="E27" dT="2021-06-17T15:12:01.79" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{6D9DAD39-A991-4A9F-8291-3C5426292902}">
     <text>Not resolved in ch7</text>
   </threadedComment>
-  <threadedComment ref="E29" dT="2021-06-17T15:12:15.91" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{D34E0784-2568-4F91-A39B-A8E91CE1F233}">
-    <text>Not resolved in ch7</text>
-  </threadedComment>
-  <threadedComment ref="E30" dT="2021-06-17T15:12:48.12" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{95F0F607-D18D-4AB2-B1FB-FB2A00E18008}">
-    <text>Can be discussed in ch7, or in integration, whichever is most suitable</text>
-  </threadedComment>
-  <threadedComment ref="E32" dT="2021-06-17T15:13:24.73" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{F31D550E-C038-4464-ADD0-49E27EEB327A}">
-    <text xml:space="preserve">Not mentioned in ch7, I know what to say about this, just don't know exactly where to put it in the report
-</text>
-  </threadedComment>
-  <threadedComment ref="E37" dT="2021-06-17T15:30:27.03" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{BC8F3362-A566-42B1-9D5C-E0016DD2B330}">
+  <threadedComment ref="E30" dT="2021-06-17T15:30:27.03" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{BC8F3362-A566-42B1-9D5C-E0016DD2B330}">
     <text>Resolved</text>
   </threadedComment>
-  <threadedComment ref="E38" dT="2021-06-17T15:30:05.63" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{120497EA-8753-408E-9142-62414F8CCD8F}">
+  <threadedComment ref="E31" dT="2021-06-17T15:30:05.63" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{120497EA-8753-408E-9142-62414F8CCD8F}">
     <text xml:space="preserve">Link to BMS
 </text>
   </threadedComment>
-  <threadedComment ref="E39" dT="2021-06-17T15:30:12.89" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{B6B69B58-8734-4A63-AD94-274CA024DF05}">
+  <threadedComment ref="E32" dT="2021-06-17T15:30:12.89" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{B6B69B58-8734-4A63-AD94-274CA024DF05}">
     <text>Link to BMS</text>
+  </threadedComment>
+  <threadedComment ref="E33" dT="2021-06-17T15:12:48.12" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{95F0F607-D18D-4AB2-B1FB-FB2A00E18008}">
+    <text>Can be discussed in ch7, or in integration, whichever is most suitable</text>
+  </threadedComment>
+  <threadedComment ref="E35" dT="2021-06-17T15:13:24.73" personId="{6E0FBB83-1EB7-4DA4-84C4-9BA6C115429A}" id="{F31D550E-C038-4464-ADD0-49E27EEB327A}">
+    <text xml:space="preserve">Not mentioned in ch7, I know what to say about this, just don't know exactly where to put it in the report
+</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P220"/>
+  <dimension ref="A1:P246"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <pane ySplit="1" topLeftCell="B221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="122.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -2278,7 +2199,7 @@
       <c r="C6" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="50" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="35" t="s">
@@ -2406,7 +2327,7 @@
       <c r="C14" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="35" t="s">
@@ -2427,7 +2348,7 @@
       <c r="C15" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="50" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="35" t="s">
@@ -2540,7 +2461,7 @@
       <c r="C22" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="35" t="s">
@@ -2557,7 +2478,7 @@
       <c r="C23" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="50" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="35" t="s">
@@ -2574,7 +2495,7 @@
       <c r="C24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="50" t="s">
         <v>67</v>
       </c>
       <c r="E24" s="35" t="s">
@@ -2585,7 +2506,7 @@
       </c>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" ht="30">
+    <row r="25" spans="1:7" ht="28.9">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35" t="s">
@@ -2603,13 +2524,13 @@
       <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="24"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="8" t="s">
-        <v>30</v>
+      <c r="C26" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>12</v>
@@ -2621,10 +2542,10 @@
       <c r="A27" s="35"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>12</v>
@@ -2635,1429 +2556,1270 @@
     <row r="28" spans="1:7">
       <c r="A28" s="35"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="35" t="s">
-        <v>72</v>
+      <c r="C28" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="24"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="35" t="s">
-        <v>74</v>
+      <c r="C29" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
-      <c r="C30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>56</v>
+      <c r="C30" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="35"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35" t="s">
-        <v>56</v>
+      <c r="C31" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="24"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="35"/>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="24"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="24"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="24"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D35" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="E35" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
-      <c r="C37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>88</v>
-      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
-      <c r="C38" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>91</v>
-      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:7" s="35" customFormat="1">
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="1:7" s="35" customFormat="1">
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="1:7" s="35" customFormat="1">
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="1:7" s="35" customFormat="1">
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:7" s="35" customFormat="1">
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+    </row>
+    <row r="45" spans="1:7" s="20" customFormat="1">
+      <c r="B45" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="20" customFormat="1">
-      <c r="B40" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="35"/>
-      <c r="B41" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="35"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="35">
-        <v>9.6</v>
-      </c>
-      <c r="G42" s="35"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="35"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="35">
-        <v>9.6</v>
-      </c>
-      <c r="G43" s="35"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="24"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="24"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="35"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
+      <c r="B46" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>12</v>
+      </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="35"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="33" t="s">
+      <c r="B47" s="56"/>
+      <c r="C47" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="35">
+        <v>9.6</v>
+      </c>
+      <c r="G47" s="35"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="35"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="35">
+        <v>9.6</v>
+      </c>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="35"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="24"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="35"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="35"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="35"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="35"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="24"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D54" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="E54" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="35"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="24"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="10" t="s">
+      <c r="G54" s="35"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="35"/>
+      <c r="B55" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="C55" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="24"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="10" t="s">
+      <c r="D55" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="E55" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="35" t="s">
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="35"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="35"/>
-      <c r="B50" s="52" t="s">
+      <c r="D56" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="E56" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="24"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="35" t="s">
+      <c r="D57" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E50" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="35"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="35"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="10" t="s">
+      <c r="E57" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="35"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D58" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" s="35"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="24"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="10" t="s">
+      <c r="E58" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="24"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="35" t="s">
+      <c r="D59" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="35"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="35"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="10" t="s">
+      <c r="E59" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="35"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="E60" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="35"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="24"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="3" t="s">
+      <c r="G60" s="35"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="35"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="E61" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="E54" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="35"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="24"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="G61" s="35"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="24"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="35" t="s">
+      <c r="E62" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="24"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="15" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="35"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="D63" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="35" t="s">
+      <c r="E63" s="35" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="24"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="35"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="24"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="15" t="s">
+      <c r="G63" s="35"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="24"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="24"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="24"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D66" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E66" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="24"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F59" s="35"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="24"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="35"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="35"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="24"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="24"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="35"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="24"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" s="20" customFormat="1">
-      <c r="B65" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="35"/>
-      <c r="B66" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="G66" s="35"/>
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="35"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>150</v>
+      <c r="A67" s="24"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>137</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>151</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="G67" s="35"/>
       <c r="H67" s="35"/>
       <c r="I67" s="35"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="35"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>153</v>
+      <c r="A68" s="24"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14" t="s">
+        <v>139</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H68" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
       <c r="I68" s="35"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="35"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="6" t="s">
-        <v>156</v>
-      </c>
+      <c r="A69" s="24"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="3"/>
       <c r="D69" s="35" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H69" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
       <c r="I69" s="35"/>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="35"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="35"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E71" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I71" s="35"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="35"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H72" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="I72" s="35"/>
-    </row>
-    <row r="73" spans="1:9" ht="28.9">
-      <c r="A73" s="35"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="35"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E74" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="35"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="35"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D76" s="35" t="s">
+    <row r="70" spans="1:9" s="35" customFormat="1">
+      <c r="C70" s="3"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" s="35" customFormat="1">
+      <c r="C71" s="3"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" s="35" customFormat="1">
+      <c r="C72" s="3"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" s="35" customFormat="1">
+      <c r="C73" s="3"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" s="35" customFormat="1">
+      <c r="C74" s="3"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:9" s="35" customFormat="1">
+      <c r="C75" s="3"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" s="20" customFormat="1">
+      <c r="B76" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="E76" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="35"/>
-      <c r="B77" s="55"/>
+      <c r="B77" s="59" t="s">
+        <v>142</v>
+      </c>
       <c r="C77" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>31</v>
+        <v>143</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="E77" s="35" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H77" s="35" t="s">
-        <v>179</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H77" s="35"/>
       <c r="I77" s="35"/>
     </row>
-    <row r="78" spans="1:9" ht="28.9">
-      <c r="A78" s="24"/>
-      <c r="B78" s="55"/>
+    <row r="78" spans="1:9">
+      <c r="A78" s="35"/>
+      <c r="B78" s="60"/>
       <c r="C78" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>181</v>
+        <v>145</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E78" s="35" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="H78" s="35"/>
       <c r="I78" s="35"/>
     </row>
-    <row r="79" spans="1:9" ht="28.9">
-      <c r="A79" s="24"/>
-      <c r="B79" s="55"/>
+    <row r="79" spans="1:9">
+      <c r="A79" s="35"/>
+      <c r="B79" s="60"/>
       <c r="C79" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>184</v>
+        <v>148</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="E79" s="35" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H79" s="35" t="s">
-        <v>39</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="H79" s="6"/>
       <c r="I79" s="35"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="35"/>
-      <c r="B80" s="56" t="s">
-        <v>15</v>
-      </c>
+      <c r="B80" s="60"/>
       <c r="C80" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>187</v>
+        <v>152</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="E80" s="35" t="s">
         <v>12</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35" t="s">
-        <v>189</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="35"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="35"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" s="49" t="s">
-        <v>48</v>
+      <c r="B81" s="60"/>
+      <c r="C81" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="E81" s="35" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="35"/>
-      <c r="B82" s="56"/>
+      <c r="B82" s="60"/>
       <c r="C82" s="6" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H82" s="35"/>
+        <v>160</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="I82" s="35"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="35"/>
-      <c r="B83" s="56"/>
+      <c r="B83" s="60"/>
       <c r="C83" s="6" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="H83" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="I83" s="35"/>
+    </row>
+    <row r="84" spans="1:9" ht="28.9">
       <c r="A84" s="35"/>
-      <c r="B84" s="56"/>
+      <c r="B84" s="60"/>
       <c r="C84" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>198</v>
+        <v>165</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="35"/>
-      <c r="B85" s="56"/>
+      <c r="B85" s="60"/>
       <c r="C85" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D85" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
+        <v>169</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="35"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
       <c r="I86" s="35"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="35"/>
-      <c r="B87" s="56"/>
+      <c r="B87" s="60"/>
       <c r="C87" s="35" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="35"/>
+    <row r="88" spans="1:9">
+      <c r="A88" s="35"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H88" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="I88" s="35"/>
+    </row>
+    <row r="89" spans="1:9" ht="28.9">
+      <c r="A89" s="24"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E89" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I89" s="35"/>
+    </row>
+    <row r="90" spans="1:9" ht="28.9">
+      <c r="A90" s="24"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E90" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H90" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="I90" s="35"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="1"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="5"/>
+      <c r="A91" s="35"/>
+      <c r="B91" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
+      <c r="I91" s="35" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="1"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="53"/>
+      <c r="C92" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="H92" s="35"/>
       <c r="I92" s="35"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="1"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
       <c r="I93" s="35"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="1"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="35"/>
+      <c r="A94" s="24"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35" t="s">
+        <v>14</v>
+      </c>
       <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
+      <c r="I94" s="35" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="1"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="35"/>
+      <c r="A95" s="24"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E95" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="H95" s="35"/>
       <c r="I95" s="35"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="1"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="35"/>
+      <c r="A96" s="24"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E96" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="H96" s="35"/>
       <c r="I96" s="35"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="1"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="35"/>
+      <c r="A97" s="24"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E97" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="H97" s="35"/>
       <c r="I97" s="35"/>
     </row>
-    <row r="98" spans="1:9" s="20" customFormat="1" ht="13.9" customHeight="1">
-      <c r="B98" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E98" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A99" s="35"/>
-      <c r="B99" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I99" s="35"/>
+    <row r="98" spans="1:9">
+      <c r="A98" s="24"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="35"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E100" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>208</v>
-      </c>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
       <c r="I100" s="35"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="35"/>
-      <c r="B101" s="56"/>
-      <c r="C101" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H101" s="7"/>
+      <c r="A101" s="1"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
       <c r="I101" s="35"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="35"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D102" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E102" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F102" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>213</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="35"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="F103" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A104" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="B104" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D104" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E104" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A105" s="35"/>
-      <c r="B105" s="56"/>
-      <c r="C105" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D105" s="35" t="s">
-        <v>223</v>
-      </c>
-      <c r="E105" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>225</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="1"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="1"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
       <c r="I105" s="35"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="35"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>227</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
       <c r="I106" s="35"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="35"/>
-      <c r="B107" s="56"/>
-      <c r="C107" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H107" s="7"/>
-      <c r="I107" s="6" t="s">
-        <v>231</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="35"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="35"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D108" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E108" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="35"/>
+      <c r="A108" s="1"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="27"/>
       <c r="G108" s="35"/>
       <c r="H108" s="35"/>
       <c r="I108" s="35"/>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109" s="24"/>
-      <c r="B109" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D109" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F109" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I109" s="35" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="24"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D110" s="35" t="s">
-        <v>238</v>
+    <row r="109" spans="1:9" s="20" customFormat="1" ht="13.9" customHeight="1">
+      <c r="B109" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A110" s="35"/>
+      <c r="B110" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F110" s="35" t="s">
-        <v>233</v>
+        <v>12</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I110" s="35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="28.9">
-      <c r="A111" s="24"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D111" s="35" t="s">
-        <v>181</v>
+        <v>199</v>
+      </c>
+      <c r="I110" s="35"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="35"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F111" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="H111" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="I111" s="35"/>
     </row>
-    <row r="112" spans="1:9" ht="28.9">
-      <c r="A112" s="24"/>
-      <c r="B112" s="56"/>
-      <c r="C112" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D112" s="35" t="s">
-        <v>241</v>
+    <row r="112" spans="1:9">
+      <c r="A112" s="35"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F112" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>242</v>
+        <v>12</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="35"/>
     </row>
     <row r="113" spans="1:16">
-      <c r="A113" s="35"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="35"/>
+      <c r="A113" s="24"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>52</v>
+      </c>
       <c r="E113" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F113" s="35"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="35"/>
+      <c r="F113" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="J113" s="35"/>
       <c r="K113" s="35"/>
       <c r="L113" s="35"/>
@@ -4066,29 +3828,27 @@
       <c r="O113" s="35"/>
       <c r="P113" s="35"/>
     </row>
-    <row r="114" spans="1:16" ht="57.6">
-      <c r="A114" s="24"/>
-      <c r="B114" s="35"/>
-      <c r="C114" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>246</v>
-      </c>
+    <row r="114" spans="1:16">
+      <c r="A114" s="35"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G114" s="7"/>
       <c r="H114" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="I114" s="13" t="s">
-        <v>248</v>
+        <v>58</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="J114" s="35"/>
       <c r="K114" s="35"/>
@@ -4098,28 +3858,34 @@
       <c r="O114" s="35"/>
       <c r="P114" s="35"/>
     </row>
-    <row r="115" spans="1:16">
-      <c r="A115" s="24"/>
-      <c r="B115" s="35"/>
-      <c r="C115" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>141</v>
+    <row r="115" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A115" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D115" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>249</v>
+        <v>12</v>
+      </c>
+      <c r="F115" s="35" t="s">
+        <v>213</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I115" s="35"/>
+        <v>215</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="J115" s="35"/>
       <c r="K115" s="35"/>
       <c r="L115" s="35"/>
@@ -4128,58 +3894,56 @@
       <c r="O115" s="35"/>
       <c r="P115" s="35"/>
     </row>
-    <row r="116" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A116" s="24"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D116" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E116" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F116" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G116" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="H116" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="I116" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="29"/>
-      <c r="N116" s="29"/>
-      <c r="O116" s="29"/>
-      <c r="P116" s="29"/>
-    </row>
-    <row r="117" spans="1:16" ht="16.5" customHeight="1">
+    <row r="116" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A116" s="35"/>
+      <c r="B116" s="53"/>
+      <c r="C116" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E116" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I116" s="35"/>
+      <c r="J116" s="35"/>
+      <c r="K116" s="35"/>
+      <c r="L116" s="35"/>
+      <c r="M116" s="35"/>
+      <c r="N116" s="35"/>
+      <c r="O116" s="35"/>
+      <c r="P116" s="35"/>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" s="35"/>
-      <c r="B117" s="35"/>
-      <c r="C117" s="16" t="s">
-        <v>162</v>
+      <c r="B117" s="53"/>
+      <c r="C117" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="E117" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>254</v>
+        <v>12</v>
+      </c>
+      <c r="F117" s="35" t="s">
+        <v>213</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="I117" s="35"/>
       <c r="J117" s="35"/>
@@ -4190,29 +3954,27 @@
       <c r="O117" s="35"/>
       <c r="P117" s="35"/>
     </row>
-    <row r="118" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A118" s="24"/>
-      <c r="B118" s="35"/>
-      <c r="C118" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D118" s="35" t="s">
-        <v>258</v>
+    <row r="118" spans="1:16">
+      <c r="A118" s="35"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I118" s="35" t="s">
-        <v>262</v>
+        <v>12</v>
+      </c>
+      <c r="F118" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H118" s="7"/>
+      <c r="I118" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="J118" s="35"/>
       <c r="K118" s="35"/>
@@ -4222,27 +3984,88 @@
       <c r="O118" s="35"/>
       <c r="P118" s="35"/>
     </row>
-    <row r="120" spans="1:16" s="20" customFormat="1">
-      <c r="B120" s="19" t="s">
-        <v>263</v>
-      </c>
+    <row r="119" spans="1:16">
+      <c r="A119" s="35"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E119" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="35"/>
+      <c r="K119" s="35"/>
+      <c r="L119" s="35"/>
+      <c r="M119" s="35"/>
+      <c r="N119" s="35"/>
+      <c r="O119" s="35"/>
+      <c r="P119" s="35"/>
+    </row>
+    <row r="120" spans="1:16">
+      <c r="A120" s="24"/>
+      <c r="B120" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E120" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F120" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I120" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="J120" s="35"/>
+      <c r="K120" s="35"/>
+      <c r="L120" s="35"/>
+      <c r="M120" s="35"/>
+      <c r="N120" s="35"/>
+      <c r="O120" s="35"/>
+      <c r="P120" s="35"/>
     </row>
     <row r="121" spans="1:16">
-      <c r="A121" s="35"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="35" t="s">
-        <v>264</v>
+      <c r="A121" s="24"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="E121" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F121" s="35"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="35"/>
+      <c r="F121" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I121" s="35" t="s">
+        <v>234</v>
+      </c>
       <c r="J121" s="35"/>
       <c r="K121" s="35"/>
       <c r="L121" s="35"/>
@@ -4251,21 +4074,25 @@
       <c r="O121" s="35"/>
       <c r="P121" s="35"/>
     </row>
-    <row r="122" spans="1:16">
-      <c r="A122" s="35"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="35" t="s">
-        <v>266</v>
+    <row r="122" spans="1:16" ht="28.9">
+      <c r="A122" s="24"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="E122" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F122" s="35"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="35"/>
+      <c r="F122" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H122" s="7"/>
       <c r="I122" s="35"/>
       <c r="J122" s="35"/>
       <c r="K122" s="35"/>
@@ -4275,21 +4102,25 @@
       <c r="O122" s="35"/>
       <c r="P122" s="35"/>
     </row>
-    <row r="123" spans="1:16">
-      <c r="A123" s="35"/>
-      <c r="B123" s="35"/>
-      <c r="C123" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>192</v>
+    <row r="123" spans="1:16" ht="28.9">
+      <c r="A123" s="24"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>236</v>
       </c>
       <c r="E123" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F123" s="35"/>
-      <c r="G123" s="35"/>
-      <c r="H123" s="35"/>
+      <c r="F123" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="H123" s="7"/>
       <c r="I123" s="35"/>
       <c r="J123" s="35"/>
       <c r="K123" s="35"/>
@@ -4301,19 +4132,15 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="35"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="D124" s="35" t="s">
-        <v>167</v>
-      </c>
+      <c r="B124" s="49"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="35"/>
       <c r="E124" s="35" t="s">
         <v>56</v>
       </c>
       <c r="F124" s="35"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="35"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="7"/>
       <c r="I124" s="35"/>
       <c r="J124" s="35"/>
       <c r="K124" s="35"/>
@@ -4323,22 +4150,30 @@
       <c r="O124" s="35"/>
       <c r="P124" s="35"/>
     </row>
-    <row r="125" spans="1:16">
-      <c r="A125" s="35"/>
+    <row r="125" spans="1:16" ht="57.6">
+      <c r="A125" s="24"/>
       <c r="B125" s="35"/>
-      <c r="C125" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>174</v>
+      <c r="C125" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>239</v>
       </c>
       <c r="E125" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F125" s="35"/>
-      <c r="G125" s="35"/>
-      <c r="H125" s="35"/>
-      <c r="I125" s="35"/>
+      <c r="F125" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>243</v>
+      </c>
       <c r="J125" s="35"/>
       <c r="K125" s="35"/>
       <c r="L125" s="35"/>
@@ -4348,20 +4183,26 @@
       <c r="P125" s="35"/>
     </row>
     <row r="126" spans="1:16">
-      <c r="A126" s="35"/>
+      <c r="A126" s="24"/>
       <c r="B126" s="35"/>
-      <c r="C126" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>187</v>
+      <c r="C126" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="E126" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F126" s="35"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="35"/>
+      <c r="F126" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="I126" s="35"/>
       <c r="J126" s="35"/>
       <c r="K126" s="35"/>
@@ -4371,45 +4212,61 @@
       <c r="O126" s="35"/>
       <c r="P126" s="35"/>
     </row>
-    <row r="127" spans="1:16">
-      <c r="A127" s="35"/>
-      <c r="B127" s="35"/>
-      <c r="C127" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="D127" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="E127" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F127" s="35"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="35"/>
-      <c r="L127" s="35"/>
-      <c r="M127" s="35"/>
-      <c r="N127" s="35"/>
-      <c r="O127" s="35"/>
-      <c r="P127" s="35"/>
-    </row>
-    <row r="128" spans="1:16">
-      <c r="A128" s="35"/>
+    <row r="127" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A127" s="24"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G127" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H127" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="I127" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="J127" s="29"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="29"/>
+      <c r="O127" s="29"/>
+      <c r="P127" s="29"/>
+    </row>
+    <row r="128" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A128" s="35" t="s">
+        <v>249</v>
+      </c>
       <c r="B128" s="35"/>
-      <c r="C128" s="6" t="s">
-        <v>162</v>
+      <c r="C128" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E128" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F128" s="35"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="35"/>
+      <c r="F128" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>252</v>
+      </c>
       <c r="I128" s="35"/>
       <c r="J128" s="35"/>
       <c r="K128" s="35"/>
@@ -4419,1124 +4276,1474 @@
       <c r="O128" s="35"/>
       <c r="P128" s="35"/>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="1:16" ht="18.75" customHeight="1">
+      <c r="A129" s="24"/>
       <c r="B129" s="35"/>
-      <c r="C129" s="35" t="s">
-        <v>271</v>
+      <c r="C129" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E129" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F129" s="35"/>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130" s="35"/>
-      <c r="C130" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="D130" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="E130" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F130" s="35"/>
-    </row>
-    <row r="131" spans="2:6">
-      <c r="B131" s="35"/>
-      <c r="C131" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="D131" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="E131" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F131" s="35"/>
-    </row>
-    <row r="132" spans="2:6">
+      <c r="F129" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I129" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="35"/>
+      <c r="M129" s="35"/>
+      <c r="N129" s="35"/>
+      <c r="O129" s="35"/>
+      <c r="P129" s="35"/>
+    </row>
+    <row r="131" spans="1:16" s="20" customFormat="1">
+      <c r="B131" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="A132" s="35"/>
       <c r="B132" s="35"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="35"/>
+      <c r="C132" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" s="35" t="s">
+        <v>261</v>
+      </c>
       <c r="E132" s="35" t="s">
         <v>56</v>
       </c>
       <c r="F132" s="35"/>
-    </row>
-    <row r="133" spans="2:6">
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="35"/>
+      <c r="L132" s="35"/>
+      <c r="M132" s="35"/>
+      <c r="N132" s="35"/>
+      <c r="O132" s="35"/>
+      <c r="P132" s="35"/>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="A133" s="35"/>
       <c r="B133" s="35"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
+      <c r="C133" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>263</v>
+      </c>
       <c r="E133" s="35" t="s">
         <v>56</v>
       </c>
       <c r="F133" s="35"/>
-    </row>
-    <row r="134" spans="2:6" s="20" customFormat="1">
-      <c r="B134" s="19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6">
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
+      <c r="N133" s="35"/>
+      <c r="O133" s="35"/>
+      <c r="P133" s="35"/>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="A134" s="35"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="35"/>
+      <c r="J134" s="35"/>
+      <c r="K134" s="35"/>
+      <c r="L134" s="35"/>
+      <c r="M134" s="35"/>
+      <c r="N134" s="35"/>
+      <c r="O134" s="35"/>
+      <c r="P134" s="35"/>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="A135" s="35"/>
       <c r="B135" s="35"/>
       <c r="C135" s="35" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="E135" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F135" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6">
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+      <c r="J135" s="35"/>
+      <c r="K135" s="35"/>
+      <c r="L135" s="35"/>
+      <c r="M135" s="35"/>
+      <c r="N135" s="35"/>
+      <c r="O135" s="35"/>
+      <c r="P135" s="35"/>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="A136" s="35"/>
       <c r="B136" s="35"/>
-      <c r="C136" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="D136" s="35" t="s">
-        <v>280</v>
+      <c r="C136" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="E136" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F136" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" s="20" customFormat="1">
-      <c r="B137" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6">
+      <c r="F136" s="35"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="35"/>
+      <c r="J136" s="35"/>
+      <c r="K136" s="35"/>
+      <c r="L136" s="35"/>
+      <c r="M136" s="35"/>
+      <c r="N136" s="35"/>
+      <c r="O136" s="35"/>
+      <c r="P136" s="35"/>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="A137" s="35"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E137" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="35"/>
+      <c r="J137" s="35"/>
+      <c r="K137" s="35"/>
+      <c r="L137" s="35"/>
+      <c r="M137" s="35"/>
+      <c r="N137" s="35"/>
+      <c r="O137" s="35"/>
+      <c r="P137" s="35"/>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="A138" s="35"/>
       <c r="B138" s="35"/>
       <c r="C138" s="35" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="E138" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F138" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6">
+      <c r="F138" s="35"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="35"/>
+      <c r="J138" s="35"/>
+      <c r="K138" s="35"/>
+      <c r="L138" s="35"/>
+      <c r="M138" s="35"/>
+      <c r="N138" s="35"/>
+      <c r="O138" s="35"/>
+      <c r="P138" s="35"/>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="35"/>
       <c r="B139" s="35"/>
-      <c r="C139" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="D139" s="35" t="s">
-        <v>285</v>
+      <c r="C139" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="E139" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F139" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6">
+      <c r="F139" s="35"/>
+      <c r="G139" s="35"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="35"/>
+      <c r="J139" s="35"/>
+      <c r="K139" s="35"/>
+      <c r="L139" s="35"/>
+      <c r="M139" s="35"/>
+      <c r="N139" s="35"/>
+      <c r="O139" s="35"/>
+      <c r="P139" s="35"/>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="A140" s="35"/>
       <c r="B140" s="35"/>
       <c r="C140" s="35" t="s">
-        <v>54</v>
+        <v>267</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>55</v>
+        <v>268</v>
       </c>
       <c r="E140" s="35" t="s">
         <v>56</v>
       </c>
       <c r="F140" s="35"/>
-    </row>
-    <row r="141" spans="2:6">
+      <c r="G140" s="35"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="35"/>
+      <c r="J140" s="35"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="35"/>
+      <c r="M140" s="35"/>
+      <c r="N140" s="35"/>
+      <c r="O140" s="35"/>
+      <c r="P140" s="35"/>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="A141" s="35"/>
       <c r="B141" s="35"/>
       <c r="C141" s="35" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E141" s="35" t="s">
         <v>56</v>
       </c>
       <c r="F141" s="35"/>
-    </row>
-    <row r="142" spans="2:6">
+      <c r="G141" s="35"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="35"/>
+      <c r="J141" s="35"/>
+      <c r="K141" s="35"/>
+      <c r="L141" s="35"/>
+      <c r="M141" s="35"/>
+      <c r="N141" s="35"/>
+      <c r="O141" s="35"/>
+      <c r="P141" s="35"/>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="A142" s="35"/>
       <c r="B142" s="35"/>
       <c r="C142" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D142" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E142" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F142" s="35"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="35"/>
+      <c r="J142" s="35"/>
+      <c r="K142" s="35"/>
+      <c r="L142" s="35"/>
+      <c r="M142" s="35"/>
+      <c r="N142" s="35"/>
+      <c r="O142" s="35"/>
+      <c r="P142" s="35"/>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="A143" s="35"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="35"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F143" s="35"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+      <c r="J143" s="35"/>
+      <c r="K143" s="35"/>
+      <c r="L143" s="35"/>
+      <c r="M143" s="35"/>
+      <c r="N143" s="35"/>
+      <c r="O143" s="35"/>
+      <c r="P143" s="35"/>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="A144" s="35"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F144" s="35"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="35"/>
+      <c r="I144" s="35"/>
+      <c r="J144" s="35"/>
+      <c r="K144" s="35"/>
+      <c r="L144" s="35"/>
+      <c r="M144" s="35"/>
+      <c r="N144" s="35"/>
+      <c r="O144" s="35"/>
+      <c r="P144" s="35"/>
+    </row>
+    <row r="145" spans="2:6" s="20" customFormat="1">
+      <c r="B145" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" s="35"/>
+      <c r="C146" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D146" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E146" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" s="35"/>
+      <c r="C147" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="D147" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E147" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" s="20" customFormat="1">
+      <c r="B148" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="35"/>
+      <c r="C149" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D149" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E149" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="B150" s="35"/>
+      <c r="C150" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D150" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="E150" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" s="35"/>
+      <c r="C151" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D151" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E151" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F151" s="35"/>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="35"/>
+      <c r="C152" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D152" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E152" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F152" s="35"/>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="35"/>
+      <c r="C153" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D142" s="35" t="s">
+      <c r="D153" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E142" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F142" s="6" t="s">
+      <c r="E153" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
+      <c r="B154" s="35"/>
+      <c r="C154" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D154" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E154" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F154" s="35"/>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" s="35"/>
+      <c r="C155" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D155" s="35" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="143" spans="2:6">
-      <c r="B143" s="35"/>
-      <c r="C143" s="35" t="s">
+      <c r="E155" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F156" s="35"/>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="1"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F157" s="35"/>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="D143" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="E143" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F143" s="35"/>
-    </row>
-    <row r="144" spans="2:6">
-      <c r="B144" s="35"/>
-      <c r="C144" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D144" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E144" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="B145" s="35"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5">
-      <c r="B146" s="1"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="C148" s="38"/>
-      <c r="D148" s="38"/>
-      <c r="E148" s="39"/>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="B149" s="40"/>
-      <c r="C149" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="D149" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="E149" s="42" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" s="40"/>
-      <c r="C150" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="D150" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="E150" s="42" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="B151" s="40"/>
-      <c r="C151" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D151" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E151" s="42" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5">
-      <c r="B152" s="40"/>
-      <c r="C152" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D152" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="E152" s="42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="B153" s="40"/>
-      <c r="C153" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D153" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E153" s="42" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5">
-      <c r="B154" s="40"/>
-      <c r="C154" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="D154" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="E154" s="42" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5">
-      <c r="B155" s="40"/>
-      <c r="C155" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D155" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="E155" s="42" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5">
-      <c r="B156" s="40"/>
-      <c r="C156" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="D156" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E156" s="42" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="B157" s="40"/>
-      <c r="C157" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D157" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E157" s="42" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5">
-      <c r="B158" s="40"/>
-      <c r="C158" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D158" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E158" s="42" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="B159" s="40"/>
-      <c r="C159" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D159" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E159" s="42" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5">
+      <c r="C159" s="38"/>
+      <c r="D159" s="38"/>
+      <c r="E159" s="39"/>
+      <c r="F159" s="35"/>
+    </row>
+    <row r="160" spans="2:6">
       <c r="B160" s="40"/>
       <c r="C160" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D160" s="44" t="s">
-        <v>65</v>
+        <v>272</v>
+      </c>
+      <c r="D160" s="41" t="s">
+        <v>273</v>
       </c>
       <c r="E160" s="42" t="s">
-        <v>302</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="F160" s="35"/>
     </row>
     <row r="161" spans="2:5">
       <c r="B161" s="40"/>
       <c r="C161" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D161" s="44" t="s">
-        <v>67</v>
+        <v>275</v>
+      </c>
+      <c r="D161" s="41" t="s">
+        <v>276</v>
       </c>
       <c r="E161" s="42" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="40"/>
-      <c r="C162" s="22" t="s">
+      <c r="C162" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E162" s="42" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5">
+      <c r="B163" s="40"/>
+      <c r="C163" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D163" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="E163" s="42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5">
+      <c r="B164" s="40"/>
+      <c r="C164" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D164" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E164" s="42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5">
+      <c r="B165" s="40"/>
+      <c r="C165" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D165" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E165" s="42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5">
+      <c r="B166" s="40"/>
+      <c r="C166" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D166" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="E166" s="42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5">
+      <c r="B167" s="40"/>
+      <c r="C167" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="D167" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E167" s="42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5">
+      <c r="B168" s="40"/>
+      <c r="C168" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D168" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E168" s="42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5">
+      <c r="B169" s="40"/>
+      <c r="C169" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D169" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E169" s="42" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5">
+      <c r="B170" s="40"/>
+      <c r="C170" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D170" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E170" s="42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5">
+      <c r="B171" s="40"/>
+      <c r="C171" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D171" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E171" s="42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5">
+      <c r="B172" s="40"/>
+      <c r="C172" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D172" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E172" s="42" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5">
+      <c r="B173" s="40"/>
+      <c r="C173" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D162" s="41" t="s">
+      <c r="D173" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E162" s="42" t="s">
+      <c r="E173" s="42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5">
+      <c r="B174" s="45"/>
+      <c r="C174" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E174" s="47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5">
+      <c r="B178" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="163" spans="2:5">
-      <c r="B163" s="45"/>
-      <c r="C163" s="46" t="s">
+      <c r="C178" s="35"/>
+      <c r="D178" s="35"/>
+      <c r="E178" s="35"/>
+    </row>
+    <row r="179" spans="2:5">
+      <c r="B179" s="50"/>
+      <c r="C179" s="35"/>
+      <c r="D179" s="35"/>
+      <c r="E179" s="35"/>
+    </row>
+    <row r="180" spans="2:5">
+      <c r="B180" s="50"/>
+      <c r="C180" s="35"/>
+      <c r="D180" s="35"/>
+      <c r="E180" s="35"/>
+    </row>
+    <row r="181" spans="2:5">
+      <c r="B181" s="50"/>
+      <c r="C181" s="35"/>
+      <c r="D181" s="35"/>
+      <c r="E181" s="35"/>
+    </row>
+    <row r="182" spans="2:5">
+      <c r="B182" s="50"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="35"/>
+    </row>
+    <row r="183" spans="2:5">
+      <c r="B183" s="50"/>
+      <c r="C183" s="35"/>
+      <c r="D183" s="35"/>
+      <c r="E183" s="35"/>
+    </row>
+    <row r="184" spans="2:5">
+      <c r="B184" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5">
+      <c r="B185" s="54"/>
+      <c r="C185" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D163" s="46" t="s">
+      <c r="D185" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E163" s="47" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5">
-      <c r="B167" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C167" s="35"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="35"/>
-    </row>
-    <row r="168" spans="2:5">
-      <c r="B168" s="49"/>
-      <c r="C168" s="35"/>
-      <c r="D168" s="35"/>
-      <c r="E168" s="35"/>
-    </row>
-    <row r="169" spans="2:5">
-      <c r="B169" s="49"/>
-      <c r="C169" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D169" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E169" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5">
-      <c r="B170" s="49"/>
-      <c r="C170" s="35"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="35"/>
-    </row>
-    <row r="171" spans="2:5">
-      <c r="B171" s="49"/>
-      <c r="C171" s="35"/>
-      <c r="D171" s="35"/>
-      <c r="E171" s="35"/>
-    </row>
-    <row r="172" spans="2:5">
-      <c r="B172" s="49"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="35"/>
-      <c r="E172" s="35"/>
-    </row>
-    <row r="173" spans="2:5">
-      <c r="B173" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="C173" s="35"/>
-      <c r="D173" s="35"/>
-      <c r="E173" s="35"/>
-    </row>
-    <row r="174" spans="2:5">
-      <c r="B174" s="57"/>
-      <c r="C174" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D174" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E174" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5">
-      <c r="B175" s="57"/>
-      <c r="C175" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D175" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E175" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="176" spans="2:5">
-      <c r="B176" s="57"/>
-      <c r="C176" s="35" t="s">
+      <c r="E185" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" s="54"/>
+      <c r="C186" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D186" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E186" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" s="54"/>
+      <c r="C187" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D187" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E187" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5">
+      <c r="B188" s="54"/>
+      <c r="C188" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D188" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E188" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5">
+      <c r="B189" s="54"/>
+      <c r="C189" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D189" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E189" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5">
+      <c r="B190" s="54"/>
+      <c r="C190" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D176" s="35" t="s">
+      <c r="D190" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E176" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5">
-      <c r="B177" s="57"/>
-      <c r="C177" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D177" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E177" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5">
-      <c r="B178" s="57"/>
-      <c r="C178" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D178" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E178" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="179" spans="2:5">
-      <c r="B179" s="57"/>
-      <c r="C179" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="D179" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="E179" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5">
-      <c r="B180" s="57"/>
-      <c r="C180" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D180" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="E180" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5">
-      <c r="B181" s="57"/>
-      <c r="C181" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="D181" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="E181" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5">
-      <c r="B182" s="57"/>
-      <c r="C182" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="D182" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="E182" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5">
-      <c r="B183" s="57"/>
-      <c r="C183" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="D183" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="E183" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="184" spans="2:5">
-      <c r="B184" s="57"/>
-      <c r="C184" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="D184" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="E184" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="185" spans="2:5">
-      <c r="B185" s="57"/>
-      <c r="C185" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="D185" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="E185" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5">
-      <c r="B186" s="57"/>
-      <c r="C186" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D186" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E186" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5">
-      <c r="B187" s="57"/>
-      <c r="C187" s="35"/>
-      <c r="D187" s="35"/>
-      <c r="E187" s="35"/>
-    </row>
-    <row r="188" spans="2:5">
-      <c r="B188" s="57"/>
-      <c r="C188" s="35"/>
-      <c r="D188" s="35"/>
-      <c r="E188" s="35"/>
-    </row>
-    <row r="189" spans="2:5">
-      <c r="B189" s="57"/>
-      <c r="C189" s="35"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="35"/>
+      <c r="E190" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" s="54"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="35"/>
     </row>
     <row r="192" spans="2:5">
-      <c r="B192" s="1" t="s">
-        <v>307</v>
-      </c>
+      <c r="B192" s="54"/>
       <c r="C192" s="35"/>
       <c r="D192" s="35"/>
       <c r="E192" s="35"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="57" t="s">
+      <c r="B193" s="54"/>
+      <c r="C193" s="35"/>
+      <c r="D193" s="35"/>
+      <c r="E193" s="35"/>
+      <c r="F193" s="35"/>
+    </row>
+    <row r="194" spans="2:6">
+      <c r="B194" s="54"/>
+      <c r="C194" s="35"/>
+      <c r="D194" s="35"/>
+      <c r="E194" s="35"/>
+      <c r="F194" s="35"/>
+    </row>
+    <row r="195" spans="2:6">
+      <c r="B195" s="54"/>
+      <c r="C195" s="35"/>
+      <c r="D195" s="35"/>
+      <c r="E195" s="35"/>
+      <c r="F195" s="35"/>
+    </row>
+    <row r="196" spans="2:6">
+      <c r="B196" s="54"/>
+      <c r="C196" s="35"/>
+      <c r="D196" s="35"/>
+      <c r="E196" s="35"/>
+      <c r="F196" s="35"/>
+    </row>
+    <row r="197" spans="2:6">
+      <c r="B197" s="54"/>
+      <c r="C197" s="35"/>
+      <c r="D197" s="35"/>
+      <c r="E197" s="35"/>
+      <c r="F197" s="35"/>
+    </row>
+    <row r="198" spans="2:6">
+      <c r="B198" s="54"/>
+      <c r="C198" s="35"/>
+      <c r="D198" s="35"/>
+      <c r="E198" s="35"/>
+      <c r="F198" s="35"/>
+    </row>
+    <row r="199" spans="2:6">
+      <c r="B199" s="54"/>
+      <c r="C199" s="35"/>
+      <c r="D199" s="35"/>
+      <c r="E199" s="35"/>
+      <c r="F199" s="35"/>
+    </row>
+    <row r="200" spans="2:6">
+      <c r="B200" s="54"/>
+      <c r="C200" s="35"/>
+      <c r="D200" s="35"/>
+      <c r="E200" s="35"/>
+      <c r="F200" s="35"/>
+    </row>
+    <row r="203" spans="2:6">
+      <c r="B203" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F203" s="35"/>
+    </row>
+    <row r="204" spans="2:6" ht="15">
+      <c r="B204" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="C193" s="35" t="s">
+      <c r="C204" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D193" s="35" t="s">
+      <c r="D204" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E193" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F193" s="35"/>
-    </row>
-    <row r="194" spans="2:6">
-      <c r="B194" s="57"/>
-      <c r="C194" s="35" t="s">
+      <c r="E204" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F204" s="35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" ht="15">
+      <c r="B205" s="54"/>
+      <c r="C205" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D194" s="35" t="s">
+      <c r="D205" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E194" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F194" s="35"/>
-    </row>
-    <row r="195" spans="2:6">
-      <c r="B195" s="57"/>
-      <c r="C195" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D195" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E195" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F195" s="35"/>
-    </row>
-    <row r="196" spans="2:6">
-      <c r="B196" s="57"/>
-      <c r="C196" s="35" t="s">
+      <c r="E205" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="F205" s="35"/>
+    </row>
+    <row r="206" spans="2:6" ht="15">
+      <c r="B206" s="54"/>
+      <c r="C206" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D206" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E206" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" s="35"/>
+    </row>
+    <row r="207" spans="2:6" ht="15">
+      <c r="B207" s="54"/>
+      <c r="C207" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D207" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="E207" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207" s="35"/>
+    </row>
+    <row r="208" spans="2:6" ht="15">
+      <c r="B208" s="54"/>
+      <c r="C208" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D208" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E208" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F208" s="35"/>
+    </row>
+    <row r="209" spans="2:6" ht="15">
+      <c r="B209" s="54"/>
+      <c r="C209" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D209" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="E209" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209" s="35"/>
+    </row>
+    <row r="210" spans="2:6" ht="15">
+      <c r="B210" s="54"/>
+      <c r="C210" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D210" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E210" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F210" s="35"/>
+    </row>
+    <row r="211" spans="2:6" ht="15">
+      <c r="B211" s="54"/>
+      <c r="C211" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D211" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E211" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F211" s="35"/>
+    </row>
+    <row r="212" spans="2:6" ht="15">
+      <c r="B212" s="54"/>
+      <c r="C212" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="D212" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E212" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" s="35"/>
+    </row>
+    <row r="213" spans="2:6" ht="15">
+      <c r="B213" s="54"/>
+      <c r="C213" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="D213" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="E213" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213" s="35"/>
+    </row>
+    <row r="214" spans="2:6" ht="15">
+      <c r="B214" s="54"/>
+      <c r="C214" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="D196" s="35" t="s">
+      <c r="D214" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="E196" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F196" s="35"/>
-    </row>
-    <row r="197" spans="2:6">
-      <c r="B197" s="35"/>
-      <c r="C197" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="D197" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="E197" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F197" s="35"/>
-    </row>
-    <row r="198" spans="2:6">
-      <c r="B198" s="57" t="s">
+      <c r="E214" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" s="35"/>
+    </row>
+    <row r="215" spans="2:6" ht="15">
+      <c r="B215" s="54"/>
+      <c r="C215" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D215" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="E215" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F215" s="35"/>
+    </row>
+    <row r="216" spans="2:6" s="35" customFormat="1" ht="15">
+      <c r="B216" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C198" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E198" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F198" s="35"/>
-    </row>
-    <row r="199" spans="2:6">
-      <c r="B199" s="57"/>
-      <c r="C199" s="35" t="s">
+      <c r="C216" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E216" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" s="35" customFormat="1" ht="15">
+      <c r="B217" s="54"/>
+      <c r="C217" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D199" s="49" t="s">
+      <c r="D217" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E199" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F199" s="35"/>
-    </row>
-    <row r="200" spans="2:6">
-      <c r="B200" s="57"/>
-      <c r="C200" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D200" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E200" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F200" s="35"/>
-    </row>
-    <row r="201" spans="2:6">
-      <c r="B201" s="57"/>
-      <c r="C201" s="6" t="s">
+      <c r="E217" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" s="35" customFormat="1" ht="15">
+      <c r="B218" s="54"/>
+      <c r="C218" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D201" s="5" t="s">
+      <c r="D218" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E201" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F201" s="24"/>
-    </row>
-    <row r="202" spans="2:6">
-      <c r="B202" s="57"/>
-      <c r="C202" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E202" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F202" s="24"/>
-    </row>
-    <row r="203" spans="2:6">
-      <c r="B203" s="57"/>
-      <c r="C203" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D203" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="E203" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F203" s="35"/>
-    </row>
-    <row r="204" spans="2:6">
-      <c r="B204" s="57"/>
-      <c r="C204" s="35" t="s">
+      <c r="E218" s="35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" s="35" customFormat="1" ht="15">
+      <c r="B219" s="54"/>
+      <c r="C219" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D219" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="E219" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" ht="15">
+      <c r="B220" s="54"/>
+      <c r="C220" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D204" s="35" t="s">
+      <c r="D220" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E204" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F204" s="35"/>
-    </row>
-    <row r="207" spans="2:6">
-      <c r="B207" s="1" t="s">
+      <c r="E220" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F220" s="35"/>
+    </row>
+    <row r="221" spans="2:6" s="35" customFormat="1" ht="15"/>
+    <row r="222" spans="2:6" s="35" customFormat="1">
+      <c r="C222" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D222" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E222" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" s="35" customFormat="1"/>
+    <row r="224" spans="2:6" s="35" customFormat="1"/>
+    <row r="225" spans="2:6" s="35" customFormat="1"/>
+    <row r="226" spans="2:6" s="35" customFormat="1"/>
+    <row r="227" spans="2:6" s="35" customFormat="1"/>
+    <row r="228" spans="2:6" s="35" customFormat="1"/>
+    <row r="230" spans="2:6">
+      <c r="B230" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C230" s="35"/>
+      <c r="D230" s="35"/>
+      <c r="E230" s="35"/>
+      <c r="F230" s="35"/>
+    </row>
+    <row r="231" spans="2:6">
+      <c r="B231" s="35"/>
+      <c r="C231" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F231" s="35"/>
+    </row>
+    <row r="232" spans="2:6">
+      <c r="B232" s="35"/>
+      <c r="C232" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D232" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="E232" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F232" s="35"/>
+    </row>
+    <row r="233" spans="2:6">
+      <c r="B233" s="35"/>
+      <c r="C233" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="D233" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="E233" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F233" s="35"/>
+    </row>
+    <row r="234" spans="2:6">
+      <c r="B234" s="35"/>
+      <c r="C234" s="35"/>
+      <c r="D234" s="35"/>
+      <c r="E234" s="35"/>
+      <c r="F234" s="35"/>
+    </row>
+    <row r="235" spans="2:6">
+      <c r="B235" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F235" s="35"/>
+    </row>
+    <row r="236" spans="2:6" ht="15">
+      <c r="B236" s="51"/>
+      <c r="C236" s="35"/>
+      <c r="D236" s="35"/>
+      <c r="E236" s="35"/>
+      <c r="F236" s="35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" ht="15">
+      <c r="B237" s="51"/>
+      <c r="C237" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D237" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E237" s="35"/>
+      <c r="F237" s="35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" ht="15">
+      <c r="B238" s="51"/>
+      <c r="C238" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D238" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E238" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F238" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" ht="15">
+      <c r="B239" s="51"/>
+      <c r="C239" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D239" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E239" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F239" s="35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" ht="15">
+      <c r="B240" s="35"/>
+      <c r="C240" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D240" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E240" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F240" s="35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" ht="15">
+      <c r="B241" s="35"/>
+      <c r="C241" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D241" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E241" s="35"/>
+      <c r="F241" s="35"/>
+    </row>
+    <row r="242" spans="2:6" ht="15">
+      <c r="B242" s="35"/>
+      <c r="C242" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E242" s="35"/>
+      <c r="F242" s="35"/>
+    </row>
+    <row r="243" spans="2:6">
+      <c r="B243" s="35"/>
+      <c r="C243" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D243" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E243" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="C207" s="35"/>
-      <c r="D207" s="35"/>
-      <c r="E207" s="35"/>
-      <c r="F207" s="35"/>
-    </row>
-    <row r="208" spans="2:6">
-      <c r="B208" s="35"/>
-      <c r="C208" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E208" s="35"/>
-      <c r="F208" s="35"/>
-    </row>
-    <row r="209" spans="2:5">
-      <c r="B209" s="35"/>
-      <c r="C209" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="D209" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="E209" s="35"/>
-    </row>
-    <row r="210" spans="2:5">
-      <c r="B210" s="35"/>
-      <c r="C210" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="D210" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="E210" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="211" spans="2:5">
-      <c r="B211" s="35"/>
-      <c r="C211" s="35"/>
-      <c r="D211" s="35"/>
-      <c r="E211" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="212" spans="2:5">
-      <c r="B212" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C212" s="35"/>
-      <c r="D212" s="35"/>
-      <c r="E212" s="35"/>
-    </row>
-    <row r="213" spans="2:5">
-      <c r="B213" s="56" t="s">
-        <v>232</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D213" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E213" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5">
-      <c r="B214" s="56"/>
-      <c r="C214" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D214" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="E214" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5">
-      <c r="B215" s="56"/>
-      <c r="C215" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D215" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E215" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5">
-      <c r="B216" s="56"/>
-      <c r="C216" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D216" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="E216" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5">
-      <c r="B217" s="35"/>
-      <c r="C217" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D217" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E217" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5">
-      <c r="B218" s="35"/>
-      <c r="C218" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E218" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5">
-      <c r="B220" s="35"/>
-      <c r="C220" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D220" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E220" s="35"/>
+      <c r="F243" s="35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" ht="15">
+      <c r="B244" s="35"/>
+      <c r="C244" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D244" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E244" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F244" s="35"/>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" s="35"/>
+      <c r="C246" s="35"/>
+      <c r="D246" s="35"/>
+      <c r="E246" s="35"/>
+      <c r="F246" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="B198:B204"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="B41:B49"/>
-    <mergeCell ref="B50:B62"/>
-    <mergeCell ref="B66:B79"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="B174:B189"/>
+  <mergeCells count="10">
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="B55:B67"/>
+    <mergeCell ref="B77:B90"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B185:B200"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="B216:B220"/>
+    <mergeCell ref="B204:B215"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E11 E37:E39 F3:F7 E41:E45 F9:F10 G4:G10 E13:G13 G14 F15:G17 E90:E91 E94:E97 E66:E85 E47:E64">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+  <conditionalFormatting sqref="E3:E11 F3:F7 E46:E50 F9:F10 G4:G10 E13:G13 G14 F15:G17 E105:E108 E52:E75 E95:E97 E77:E93 E40 E44 E21:E36 E195 E185:E190 F204 E204:E220 E222:E223">
+    <cfRule type="cellIs" dxfId="29" priority="53" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E18">
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="51" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="52" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E39">
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+  <conditionalFormatting sqref="E110:E129">
+    <cfRule type="cellIs" dxfId="25" priority="47" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="48" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99:E118">
-    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
+  <conditionalFormatting sqref="E132:E144">
+    <cfRule type="cellIs" dxfId="23" priority="45" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="46" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E121:E133">
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+  <conditionalFormatting sqref="E146">
+    <cfRule type="cellIs" dxfId="21" priority="43" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="44" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
+  <conditionalFormatting sqref="E147">
+    <cfRule type="cellIs" dxfId="19" priority="41" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="42" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+  <conditionalFormatting sqref="E149:E157 E160">
+    <cfRule type="cellIs" dxfId="17" priority="39" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="40" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E138:E146 E149">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="15" priority="37" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="38" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="35" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="36" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86:G86">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+  <conditionalFormatting sqref="E161:E168 E170:E174">
+    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E150:E157 E159:E163">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E218">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E213:E216">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E210:E212">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E217">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E218">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E193:E204">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="30" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E169">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="27" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="28" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E174:E186">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="E237:E243">
+    <cfRule type="cellIs" dxfId="7" priority="25" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="26" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E232:E233">
+    <cfRule type="cellIs" dxfId="5" priority="23" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="24" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E180">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E247:E1048576 E1:E220 E237:E245 E222:E235">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"Depends on client"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"Post DSE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E247:E1048576 E1:E220 E222:E235 E237:E245" xr:uid="{6D03E24A-374F-49B7-A8BB-94D9BC407A83}">
+      <formula1>"No,Yes,Depends on client,Post DSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5544,6 +5751,246 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65971EF1-50CF-4ADF-9B6D-EE148A7EC768}">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FA84AB-732B-4E9F-9BE5-3D353347A6F2}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -5558,17 +6005,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5577,6 +6024,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058D1E51C26BF4B4FB91E28F1E036BB40" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7fd5228a7f473da423005c16a84c48d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ba12d03d-f529-482b-a9d1-58a4bd864a4d" xmlns:ns3="4287390d-41cf-4ec3-b5c4-f93bc044300e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62c5ae8bcf211405565d31f5eb8ee63b" ns2:_="" ns3:_="">
     <xsd:import namespace="ba12d03d-f529-482b-a9d1-58a4bd864a4d"/>
@@ -5793,23 +6255,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0273BA1-76F8-4CEA-84EF-14A0C64B0A13}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D145042-BAB4-4237-A6CA-3750D4595F5B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5817,5 +6264,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D145042-BAB4-4237-A6CA-3750D4595F5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0273BA1-76F8-4CEA-84EF-14A0C64B0A13}"/>
 </file>